--- a/Project 2/Documents/FunctionPlotterDocuments/SalterOutput/output3SaltedGraph.xlsx
+++ b/Project 2/Documents/FunctionPlotterDocuments/SalterOutput/output3SaltedGraph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{564BDEF9-2513-4C0E-8012-915B1EB1DCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B0CA50B-C0A0-4492-8294-C294E3A4E029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{328D6B69-949F-4C63-ABEB-6321A9779063}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{7F339ACD-E614-4D8B-84D6-A1FB62E8656C}"/>
   </bookViews>
   <sheets>
     <sheet name="output3Salted" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Salted Output (Range: 1000 - 5000)</a:t>
             </a:r>
           </a:p>
@@ -974,304 +981,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-4464</c:v>
+                  <c:v>1473</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4325</c:v>
+                  <c:v>4124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2208</c:v>
+                  <c:v>2604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1314</c:v>
+                  <c:v>-1555</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2317</c:v>
+                  <c:v>4909</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4810</c:v>
+                  <c:v>-1476</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1189</c:v>
+                  <c:v>4505</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5194</c:v>
+                  <c:v>5256</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4373</c:v>
+                  <c:v>-2839</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4112</c:v>
+                  <c:v>-764</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2876</c:v>
+                  <c:v>-2136</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1975</c:v>
+                  <c:v>-2245</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2422</c:v>
+                  <c:v>-2660</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>4034</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-154</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2506</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-840</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-947</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>5370</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>4766</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3129</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3880</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5081</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>545</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>-86</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6434</c:v>
+                  <c:v>-393</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5140</c:v>
+                  <c:v>1117</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2106</c:v>
+                  <c:v>-1244</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2765</c:v>
+                  <c:v>7352</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3040</c:v>
+                  <c:v>1489</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7201</c:v>
+                  <c:v>8707</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7432</c:v>
+                  <c:v>7433</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8585</c:v>
+                  <c:v>871</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8439</c:v>
+                  <c:v>2522</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3511</c:v>
+                  <c:v>3367</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2177</c:v>
+                  <c:v>5348</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2431</c:v>
+                  <c:v>10364</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5825</c:v>
+                  <c:v>12427</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11911</c:v>
+                  <c:v>3973</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5278</c:v>
+                  <c:v>11106</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5416</c:v>
+                  <c:v>6837</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13603</c:v>
+                  <c:v>6632</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>14505</c:v>
+                  <c:v>7341</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7677</c:v>
+                  <c:v>13990</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6085</c:v>
+                  <c:v>14910</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14513</c:v>
+                  <c:v>14916</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13325</c:v>
+                  <c:v>9940</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9664</c:v>
+                  <c:v>16891</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18284</c:v>
+                  <c:v>18179</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10703</c:v>
+                  <c:v>16685</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12603</c:v>
+                  <c:v>18818</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>10441</c:v>
+                  <c:v>17420</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>11494</c:v>
+                  <c:v>19446</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>11954</c:v>
+                  <c:v>18201</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>12541</c:v>
+                  <c:v>12922</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>21365</c:v>
+                  <c:v>12931</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>17588</c:v>
+                  <c:v>19945</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>24115</c:v>
+                  <c:v>23006</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>23277</c:v>
+                  <c:v>16328</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>22410</c:v>
+                  <c:v>22620</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>19401</c:v>
+                  <c:v>22685</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>25129</c:v>
+                  <c:v>26678</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>20215</c:v>
+                  <c:v>21718</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>26724</c:v>
+                  <c:v>22350</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>19966</c:v>
+                  <c:v>28775</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>22177</c:v>
+                  <c:v>23064</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>21711</c:v>
+                  <c:v>21565</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>30796</c:v>
+                  <c:v>23344</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>23639</c:v>
+                  <c:v>32651</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>30714</c:v>
+                  <c:v>25739</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>26448</c:v>
+                  <c:v>26439</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>35242</c:v>
+                  <c:v>27741</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>35639</c:v>
+                  <c:v>36676</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>31739</c:v>
+                  <c:v>30966</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>36259</c:v>
+                  <c:v>32875</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>39499</c:v>
+                  <c:v>37387</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>38522</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>40574</c:v>
+                  <c:v>35864</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42249</c:v>
+                  <c:v>39299</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42172</c:v>
+                  <c:v>34075</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42962</c:v>
+                  <c:v>42025</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>36430</c:v>
+                  <c:v>38064</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>37805</c:v>
+                  <c:v>38146</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>46892</c:v>
+                  <c:v>38294</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>47489</c:v>
+                  <c:v>39664</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>40592</c:v>
+                  <c:v>44088</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42332</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>45852</c:v>
+                  <c:v>49176</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>50779</c:v>
+                  <c:v>46689</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>54195</c:v>
+                  <c:v>45226</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>46735</c:v>
+                  <c:v>48625</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>50966</c:v>
+                  <c:v>49137</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>49449</c:v>
+                  <c:v>57303</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>53567</c:v>
+                  <c:v>51966</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>57377</c:v>
+                  <c:v>52887</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>54262</c:v>
+                  <c:v>55568</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>62205</c:v>
+                  <c:v>62349</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>64801</c:v>
+                  <c:v>64010</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>56403</c:v>
+                  <c:v>59495</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>67463</c:v>
+                  <c:v>59115</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>59882</c:v>
+                  <c:v>59384</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>60981</c:v>
+                  <c:v>62365</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>70065</c:v>
+                  <c:v>64474</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>64614</c:v>
+                  <c:v>64510</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>74207</c:v>
+                  <c:v>72414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,7 +1286,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F8A2-4A84-B624-CEE2CD433F5E}"/>
+              <c16:uniqueId val="{00000000-D94C-4AAB-9296-89F004BAC985}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1291,11 +1298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="403652432"/>
-        <c:axId val="403650032"/>
+        <c:axId val="1334381919"/>
+        <c:axId val="1334384319"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="403652432"/>
+        <c:axId val="1334381919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,12 +1342,27 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>X-Values</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50408923884514423"/>
+              <c:y val="0.89256926217556143"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1407,12 +1429,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403650032"/>
+        <c:crossAx val="1334384319"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="403650032"/>
+        <c:axId val="1334384319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,7 +1474,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Y-Values</a:t>
                 </a:r>
               </a:p>
@@ -1524,7 +1553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403652432"/>
+        <c:crossAx val="1334381919"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2134,22 +2163,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA2AE30-7E1E-9C52-333C-21A2F10E7838}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB611A8-B0A6-F60C-913B-FBA79E60BBD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,11 +2515,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BDF358-C7F7-4F0D-B287-F174091F398F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D30FC44-A1E3-4DCB-BA45-5E3EC60A9033}">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2500,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>-4464</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2508,7 +2537,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4325</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2516,7 +2545,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2208</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2524,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1314</v>
+        <v>-1555</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2532,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2317</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2540,7 +2569,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4810</v>
+        <v>-1476</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2548,7 +2577,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-1189</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2556,7 +2585,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5194</v>
+        <v>5256</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2564,7 +2593,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-4373</v>
+        <v>-2839</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2572,7 +2601,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4112</v>
+        <v>-764</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2580,7 +2609,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2876</v>
+        <v>-2136</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2588,7 +2617,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1975</v>
+        <v>-2245</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2596,7 +2625,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-2422</v>
+        <v>-2660</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2604,7 +2633,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5370</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2612,7 +2641,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4766</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2620,7 +2649,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-3129</v>
+        <v>-2506</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2628,7 +2657,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3880</v>
+        <v>-840</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2636,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>5081</v>
+        <v>-947</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2644,7 +2673,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>545</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2652,7 +2681,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2660,7 +2689,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>6434</v>
+        <v>-393</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2668,7 +2697,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>5140</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2676,7 +2705,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2106</v>
+        <v>-1244</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2684,7 +2713,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2765</v>
+        <v>7352</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2692,7 +2721,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>3040</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2700,7 +2729,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7201</v>
+        <v>8707</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2708,7 +2737,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7432</v>
+        <v>7433</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2716,7 +2745,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>8585</v>
+        <v>871</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2724,7 +2753,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>8439</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2732,7 +2761,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>3511</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2740,7 +2769,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2177</v>
+        <v>5348</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2748,7 +2777,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2431</v>
+        <v>10364</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2756,7 +2785,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>5825</v>
+        <v>12427</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2764,7 +2793,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>11911</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2772,7 +2801,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>5278</v>
+        <v>11106</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2780,7 +2809,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>5416</v>
+        <v>6837</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2788,7 +2817,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>13603</v>
+        <v>6632</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2796,7 +2825,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>14505</v>
+        <v>7341</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2804,7 +2833,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7677</v>
+        <v>13990</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2812,7 +2841,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>6085</v>
+        <v>14910</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2820,7 +2849,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>14513</v>
+        <v>14916</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2828,7 +2857,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>13325</v>
+        <v>9940</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2836,7 +2865,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>9664</v>
+        <v>16891</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2844,7 +2873,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>18284</v>
+        <v>18179</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2852,7 +2881,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>10703</v>
+        <v>16685</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2860,7 +2889,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>12603</v>
+        <v>18818</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2868,7 +2897,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>10441</v>
+        <v>17420</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2876,7 +2905,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>11494</v>
+        <v>19446</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2884,7 +2913,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>11954</v>
+        <v>18201</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2892,7 +2921,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>12541</v>
+        <v>12922</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2900,7 +2929,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>21365</v>
+        <v>12931</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2908,7 +2937,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>17588</v>
+        <v>19945</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2916,7 +2945,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>24115</v>
+        <v>23006</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2924,7 +2953,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>23277</v>
+        <v>16328</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2932,7 +2961,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>22410</v>
+        <v>22620</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2940,7 +2969,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>19401</v>
+        <v>22685</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2948,7 +2977,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>25129</v>
+        <v>26678</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2956,7 +2985,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>20215</v>
+        <v>21718</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2964,7 +2993,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>26724</v>
+        <v>22350</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2972,7 +3001,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>19966</v>
+        <v>28775</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2980,7 +3009,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>22177</v>
+        <v>23064</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2988,7 +3017,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>21711</v>
+        <v>21565</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -2996,7 +3025,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>30796</v>
+        <v>23344</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -3004,7 +3033,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>23639</v>
+        <v>32651</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -3012,7 +3041,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>30714</v>
+        <v>25739</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -3020,7 +3049,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>26448</v>
+        <v>26439</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -3028,7 +3057,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>35242</v>
+        <v>27741</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -3036,7 +3065,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>35639</v>
+        <v>36676</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -3044,7 +3073,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>31739</v>
+        <v>30966</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -3052,7 +3081,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>36259</v>
+        <v>32875</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -3060,7 +3089,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>39499</v>
+        <v>37387</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -3076,7 +3105,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>40574</v>
+        <v>35864</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -3084,7 +3113,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>42249</v>
+        <v>39299</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -3092,7 +3121,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>42172</v>
+        <v>34075</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -3100,7 +3129,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>42962</v>
+        <v>42025</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -3108,7 +3137,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>36430</v>
+        <v>38064</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -3116,7 +3145,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>37805</v>
+        <v>38146</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -3124,7 +3153,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>46892</v>
+        <v>38294</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -3132,7 +3161,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>47489</v>
+        <v>39664</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -3140,7 +3169,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>40592</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -3148,7 +3177,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>42332</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -3156,7 +3185,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>45852</v>
+        <v>49176</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -3164,7 +3193,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>50779</v>
+        <v>46689</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -3172,7 +3201,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>54195</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -3180,7 +3209,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>46735</v>
+        <v>48625</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -3188,7 +3217,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>50966</v>
+        <v>49137</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -3196,7 +3225,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>49449</v>
+        <v>57303</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -3204,7 +3233,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>53567</v>
+        <v>51966</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -3212,7 +3241,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>57377</v>
+        <v>52887</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -3220,7 +3249,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>54262</v>
+        <v>55568</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -3228,7 +3257,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>62205</v>
+        <v>62349</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -3236,7 +3265,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>64801</v>
+        <v>64010</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -3244,7 +3273,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>56403</v>
+        <v>59495</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -3252,7 +3281,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>67463</v>
+        <v>59115</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -3260,7 +3289,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>59882</v>
+        <v>59384</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -3268,7 +3297,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>60981</v>
+        <v>62365</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -3276,7 +3305,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>70065</v>
+        <v>64474</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -3284,7 +3313,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>64614</v>
+        <v>64510</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -3292,7 +3321,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>74207</v>
+        <v>72414</v>
       </c>
     </row>
   </sheetData>
